--- a/cases.xlsx
+++ b/cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\GitHub\breast.dearfad.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7EDCD3-FCEA-4885-B75F-CAD21958F8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53664CA3-3FA6-4208-B095-069436A171F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,6 +74,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步诊断是什么?此病的原因是什么?治疗方法正确的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该病的诊断是什么?下一步该怎么治疗?高发的年龄段是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大夫这是什么病啊?这个病会死人么?下一步该怎么治疗啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳腺炎,乳腺腺瘤,乳腺癌,乳腺增生;细菌感染,遗传因素,外伤导致,乳腺癌;手术治疗,抗菌药物,定期复查,增生药物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：刘亚芬
+年龄：35岁
+主诉：双侧乳房疼痛1个月
+现病史：1个月前突然发现出现双侧乳房疼痛，月经前疼痛明显，月经后疼痛减轻，未予治疗。
+生育史：未婚，未育。
+查体：体温36.0度，心率80次/分，呼吸20次/分，血压120/80mmHg。神志清楚，发育、营养良好，心脏、肺部、腹部查体未见异常。
+乳房：双侧乳房结节样改变,  有触痛，与周围分界不清，皮肤颜色正常
+抽血化验：血常规检查正常
+超声检查：双侧乳腺腺体呈增生样改变，未见明显异常占位。
+【对话场景】
+你是一名乳房疾病的患者，你正在乳腺外科门诊诊室中与医生进行谈话。在接下来的对话中，请你遵循以下要求 。1、不要回答跟问题无关的事情；2、请拒绝回答用户提出的非疾病问题；3、不要回答对疾病对诊断和治疗的其他相关信息。
+【语言风格】
+请在对话中表现出焦急、疼痛、惜字如金。用口语化的方式简短回答。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>姓名：赵淑芹
 性别：女
 年龄：20岁
@@ -81,8 +121,9 @@
 现病史：3天前突然发现左侧乳房肿块，无疼痛，未予治疗。
 生育史：未婚，未育。
 查体：体温36.0度，心率80次/分，呼吸20次/分，血压120/80mmHg。神志清楚，发育、营养良好，心脏、肺部、腹部查体未见异常。
-乳房：右侧乳房外上象限可以触及2*2厘米肿物，边界切除，质地硬，活动度良好，无压痛，皮肤颜色正常
+乳房：右侧乳房外上象限可以触及2*2厘米肿物，边界清楚，质地硬，活动度良好，无压痛，皮肤颜色正常
 抽血化验：血常规检查正常
+超声检查：未做
 【对话场景】
 你是一名乳房疾病的患者，你正在乳腺外科门诊诊室中与医生进行谈话。在接下来的对话中，请你遵循以下要求 。1、不要回答跟问题无关的事情；2、请拒绝回答用户提出的非疾病问题；3、不要回答对疾病对诊断和治疗的其他相关信息。
 【语言风格】
@@ -90,44 +131,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名：刘亚芬
-年龄：35岁
-主诉：双侧乳房疼痛1个月
-查体：双侧乳房结节样改变
-超声检查：双侧乳腺腺体呈增生杨改变
-请你遵循以下要求 。1、不要回答跟问题无关的事情；2、请拒绝回答用户提出的非疾病问题；3、不要回答对疾病对诊断和治疗的其他相关信息；4、请尽量用简短的话语回答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步诊断是什么?此病的原因是什么?治疗方法正确的是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该病的诊断是什么?下一步该怎么治疗?高发的年龄段是什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大夫这是什么病啊?这个病会死人么?下一步该怎么治疗啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳腺炎,乳腺腺瘤,乳腺癌,乳腺增生;细菌感染,遗传因素,外伤导致,乳腺癌;手术治疗,抗菌药物,定期复查,增生药物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳腺纤维腺瘤,乳腺增生,副乳腺,乳腺癌;手术,药物治疗,局部按摩,切开引流;10-15岁,15-20岁,20-25岁,40-50岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳腺增生,乳腺腺瘤,乳腺癌,乳房肉瘤;会的,不会,不知道;药物治疗,手术治疗,乳房切除,切开引流</t>
+    <t>乳腺纤维腺瘤,乳腺增生,副乳腺,乳腺癌;手术,药物治疗,局部按摩,切开引流;20-25岁,15-20岁,10-15岁,40-50岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳腺增生,乳腺腺瘤,乳腺癌,乳房肉瘤;不会,会的,不知道;药物治疗,手术治疗,乳房切除,切开引流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -483,10 +491,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.4">
@@ -500,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.4">
@@ -514,10 +522,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -531,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>

--- a/cases.xlsx
+++ b/cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\GitHub\breast.dearfad.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53664CA3-3FA6-4208-B095-069436A171F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67800CFD-9B2D-4A28-8A66-FD12941631B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>乳腺增生,乳腺腺瘤,乳腺癌,乳房肉瘤;不会,会的,不知道;药物治疗,手术治疗,乳房切除,切开引流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xingchen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,87 +472,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.53125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="93.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1328125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="2" width="21.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="93.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.1328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
